--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_12-42.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_12-42.xlsx
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
   </si>
   <si>
     <t>HEALSEC 20MG 14 CAPS</t>
@@ -953,7 +956,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -973,13 +976,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -999,17 +1002,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1017,7 +1020,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1025,17 +1028,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>22.079999999999998</v>
+        <v>45</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1043,7 +1046,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1051,17 +1054,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>51</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1077,13 +1080,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1103,17 +1106,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1129,17 +1132,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1147,7 +1150,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1155,17 +1158,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1181,17 +1184,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1199,7 +1202,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1207,17 +1210,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1225,7 +1228,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1233,17 +1236,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1259,13 +1262,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1277,7 +1280,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1285,17 +1288,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1303,7 +1306,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1311,51 +1314,77 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c t="s" r="B27" s="7">
+        <v>45</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c t="s" r="H27" s="8">
+        <v>46</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9">
+        <v>45</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c t="s" r="N27" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="26.25" customHeight="1">
-      <c r="K27" s="10">
-        <v>927.08000000000004</v>
-      </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="11">
-        <v>46</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c t="s" r="F28" s="12">
+    <row r="28" ht="25.5" customHeight="1">
+      <c r="K28" s="10">
+        <v>1125.0799999999999</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1">
+      <c t="s" r="A29" s="11">
         <v>47</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c t="s" r="I28" s="14">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c t="s" r="F29" s="12">
         <v>48</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c t="s" r="I29" s="14">
+        <v>49</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="83">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1432,10 +1461,13 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:N29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
